--- a/pred_ohlcv/54_21/2020-01-23 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETH ohlcv.xlsx
@@ -4864,7 +4864,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1264.6275979451</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1259.6275979451</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1283.4842979451</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1287.9335979451</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1129.8898979451</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-255.0525979450998</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-266.9258979450998</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-348.9018979450998</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-329.9041979450998</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-399.8416979450998</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-380.7222979450998</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-388.6969979450998</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-440.0771979450998</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-409.1393979450998</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-403.3286096367708</v>
       </c>
       <c r="H212">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-402.3166096367707</v>
       </c>
       <c r="H213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H214">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-414.3517096367707</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-414.0517096367707</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-418.4782096367707</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-420.2936096367707</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-424.8810096367707</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-430.2522096367708</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-428.6422096367708</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1101.475495750343</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1089.993852856286</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H710">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-25.48600725277876</v>
       </c>
       <c r="H711">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-605.8657072527787</v>
       </c>
       <c r="H712">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-445.9435072527787</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-391.8718072527787</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-560.8036484352456</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-637.1830514964701</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-803.8627301883454</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1090.920930188345</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-1214.480830188345</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-1263.332730188346</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-1453.251266112175</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-3104.671468587925</v>
       </c>
       <c r="H1030">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-3309.307268587925</v>
       </c>
       <c r="H1032">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-3241.037368587925</v>
       </c>
       <c r="H1033">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-3423.900231344369</v>
       </c>
       <c r="H1034">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-3350.400231344369</v>
       </c>
       <c r="H1035">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27510,7 +27510,7 @@
         <v>-3105.041031081626</v>
       </c>
       <c r="H1043">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1044" spans="1:8">
@@ -27536,7 +27536,7 @@
         <v>-3103.162031081626</v>
       </c>
       <c r="H1044">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1045" spans="1:8">
@@ -27562,7 +27562,7 @@
         <v>-3103.577631081625</v>
       </c>
       <c r="H1045">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1046" spans="1:8">
@@ -27588,7 +27588,7 @@
         <v>-3103.577631081625</v>
       </c>
       <c r="H1046">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1047" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3153.446931081625</v>
       </c>
       <c r="H1047">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3160.015331081625</v>
       </c>
       <c r="H1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3169.781531081625</v>
       </c>
       <c r="H1049">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-3099.539131081625</v>
       </c>
       <c r="H1050">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1051">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1052">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1053">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1054">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-3125.422131081626</v>
       </c>
       <c r="H1055">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-3119.301031081626</v>
       </c>
       <c r="H1056">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-3122.911231081626</v>
       </c>
       <c r="H1057">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-3123.111531081626</v>
       </c>
       <c r="H1058">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1059">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-3162.074631081626</v>
       </c>
       <c r="H1062">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1063">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1064" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-23 ETH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-23 ETH ohlcv.xlsx
@@ -4864,7 +4864,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-1264.6575979451</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-1264.6275979451</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-1259.6275979451</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-1259.6425979451</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-1283.4842979451</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-1287.9335979451</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-1326.4188979451</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-1129.8898979451</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-255.0525979450998</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-291.9864979450998</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-266.9258979450998</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-348.9018979450998</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-329.9041979450998</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-399.8416979450998</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-383.3053979450998</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-380.7222979450998</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-388.6969979450998</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-440.0771979450998</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-409.1393979450998</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-403.3229096367708</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-403.3286096367708</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-402.3166096367707</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-418.1887096367707</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-414.3517096367707</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-414.0517096367707</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-414.1717096367707</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-413.5717096367707</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-418.4782096367707</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-420.2936096367707</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-424.8810096367707</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-423.1067096367707</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-430.2522096367708</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-428.6422096367708</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-1101.475495750343</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-1089.993852856286</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-1094.248352856286</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-410.3148675386389</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-455.1879675386389</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-239.6314675386389</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-25.48600725277876</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-605.8657072527787</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-470.4052072527787</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-445.9435072527787</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-391.8718072527787</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-560.8036484352456</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-637.1830514964701</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-803.8627301883454</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-1090.920930188345</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-1214.480830188345</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -27172,7 +27172,7 @@
         <v>-3104.671468587925</v>
       </c>
       <c r="H1030">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1031" spans="1:8">
@@ -27224,7 +27224,7 @@
         <v>-3309.307268587925</v>
       </c>
       <c r="H1032">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1033" spans="1:8">
@@ -27250,7 +27250,7 @@
         <v>-3241.037368587925</v>
       </c>
       <c r="H1033">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1034" spans="1:8">
@@ -27276,7 +27276,7 @@
         <v>-3423.900231344369</v>
       </c>
       <c r="H1034">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1035" spans="1:8">
@@ -27302,7 +27302,7 @@
         <v>-3350.400231344369</v>
       </c>
       <c r="H1035">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036" spans="1:8">
@@ -27328,7 +27328,7 @@
         <v>-3470.417031344369</v>
       </c>
       <c r="H1036">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1037" spans="1:8">
@@ -27614,7 +27614,7 @@
         <v>-3153.446931081625</v>
       </c>
       <c r="H1047">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1048" spans="1:8">
@@ -27640,7 +27640,7 @@
         <v>-3160.015331081625</v>
       </c>
       <c r="H1048">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1049" spans="1:8">
@@ -27666,7 +27666,7 @@
         <v>-3169.781531081625</v>
       </c>
       <c r="H1049">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1050" spans="1:8">
@@ -27692,7 +27692,7 @@
         <v>-3099.539131081625</v>
       </c>
       <c r="H1050">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1051" spans="1:8">
@@ -27718,7 +27718,7 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1051">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1052" spans="1:8">
@@ -27744,7 +27744,7 @@
         <v>-3088.543431081625</v>
       </c>
       <c r="H1052">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1053" spans="1:8">
@@ -27770,7 +27770,7 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:8">
@@ -27796,7 +27796,7 @@
         <v>-3130.704731081626</v>
       </c>
       <c r="H1054">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1055" spans="1:8">
@@ -27822,7 +27822,7 @@
         <v>-3125.422131081626</v>
       </c>
       <c r="H1055">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1056" spans="1:8">
@@ -27848,7 +27848,7 @@
         <v>-3119.301031081626</v>
       </c>
       <c r="H1056">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1057" spans="1:8">
@@ -27874,7 +27874,7 @@
         <v>-3122.911231081626</v>
       </c>
       <c r="H1057">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1058" spans="1:8">
@@ -27900,7 +27900,7 @@
         <v>-3123.111531081626</v>
       </c>
       <c r="H1058">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1059" spans="1:8">
@@ -27926,7 +27926,7 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1059">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1060" spans="1:8">
@@ -27952,7 +27952,7 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:8">
@@ -27978,7 +27978,7 @@
         <v>-3172.507331081626</v>
       </c>
       <c r="H1061">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1062" spans="1:8">
@@ -28004,7 +28004,7 @@
         <v>-3162.074631081626</v>
       </c>
       <c r="H1062">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1063" spans="1:8">
@@ -28030,7 +28030,7 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1063">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1064" spans="1:8">
@@ -28056,7 +28056,7 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1064">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1065" spans="1:8">
@@ -28082,7 +28082,7 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1065">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1066" spans="1:8">
@@ -28108,7 +28108,7 @@
         <v>-3082.438831081626</v>
       </c>
       <c r="H1066">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1067" spans="1:8">
@@ -28134,7 +28134,7 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1067">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1068" spans="1:8">
@@ -28160,7 +28160,7 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1068">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1069" spans="1:8">
@@ -28186,7 +28186,7 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1069">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1070" spans="1:8">
@@ -28212,7 +28212,7 @@
         <v>-3034.662562707344</v>
       </c>
       <c r="H1070">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
